--- a/services/cleaned_animal_disease_prediction.xlsx
+++ b/services/cleaned_animal_disease_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey\Documents\finalyear_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67D3EE-FD8D-4DA8-A246-7EF2391633D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30141ADF-7141-41E2-85EE-5AEDC7B0145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="cleaned_animal_disease_predicti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$432</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned_animal_disease_predicti!$A$1:$W$433</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8432" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="471">
   <si>
     <t>species</t>
   </si>
@@ -730,9 +730,6 @@
     <t>Dutch</t>
   </si>
   <si>
-    <t>Upper Respiratory Infection</t>
-  </si>
-  <si>
     <t>Lincoln</t>
   </si>
   <si>
@@ -1079,13 +1076,373 @@
   </si>
   <si>
     <t>Supportive care (rest, NSAIDs for fever/pain), antibiotics if secondary bacterial infection occurs, hydration, and isolation.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Joint inflammation causing pain, lameness</t>
+  </si>
+  <si>
+    <t>Nasal inflammation in animals due to allergens (e.g., pollen, dust).</t>
+  </si>
+  <si>
+    <t>Intestinal inflammation (viral/bacterial); diarrhea, dehydration.</t>
+  </si>
+  <si>
+    <t>A motility disorder where the normal movement of the digestive tract slows or stops</t>
+  </si>
+  <si>
+    <t>Bacterial respiratory infection (e.g., “snuffles” in rabbits); pneumonia, abscesses.</t>
+  </si>
+  <si>
+    <t>Lung infection (viral/bacterial) in all species; cough, labored breathing.</t>
+  </si>
+  <si>
+    <t> Fatal viral disease in rabbits; sudden death, liver necrosis.</t>
+  </si>
+  <si>
+    <t>Bacterial (Treponema) genital lesions in rabbits; treatable with penicillin.</t>
+  </si>
+  <si>
+    <t>Fatal viral disease in rabbits; sudden death, liver necrosis.</t>
+  </si>
+  <si>
+    <t>Fungal skin infection; circular lesions (zoonotic).</t>
+  </si>
+  <si>
+    <t>Snuffles in rabbit is a bacterial infection that affects the respiratory system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viral/bacterial nasal infection (cats, dogs, rabbits); sneezing, discharge.</t>
+  </si>
+  <si>
+    <t> Fatal bleeding disorders (e.g., Ebola in primates, rabbit calicivirus).</t>
+  </si>
+  <si>
+    <t>Viral disease in dogs; fever, nasal discharge, neurological signs; often fatal.</t>
+  </si>
+  <si>
+    <t>Viral liver infection in dogs; vomiting, jaundice; preventable via vaccine.</t>
+  </si>
+  <si>
+    <t>A potentially fatal parasitic infection caused by a worm parasite, the organism is transmitted by mosquitoes.</t>
+  </si>
+  <si>
+    <t>A specific viral disease caused by Canine Adenovirus Type 1 (CAV-1). It is a subset of canine hepatitis</t>
+  </si>
+  <si>
+    <t>Contagious respiratory virus in dogs; coughing, fever.</t>
+  </si>
+  <si>
+    <t>Itching</t>
+  </si>
+  <si>
+    <t>Hair loss</t>
+  </si>
+  <si>
+    <t>Whitish nose</t>
+  </si>
+  <si>
+    <t>Mange</t>
+  </si>
+  <si>
+    <t>Give Acaricides (Anti-Mite Medications). Medicated shampoos or lime-sulfur dips. Clean cages</t>
+  </si>
+  <si>
+    <t>Fatal viral disease in rabbits; swollen eyes, skin Lesions; spread by insects.</t>
+  </si>
+  <si>
+    <t>Respiratory infection in rabbit is a bacterial infection that affects the respiratory system.</t>
+  </si>
+  <si>
+    <t>A contagious respiratory infection in dogs caused by influenza viruses (strains H3N8 and H3N2).</t>
+  </si>
+  <si>
+    <t>A bacterial infection caused by Leptospira spp., transmitted via contact with contaminated water, or urine from infected animals</t>
+  </si>
+  <si>
+    <t>A highly contagious, life-threatening viral disease in dogs (especially puppies)</t>
+  </si>
+  <si>
+    <t>Long-term airway inflammation (dogs, cats, horses); cough, exercise intolerance.</t>
+  </si>
+  <si>
+    <t>Stomach/intestinal inflammation; vomiting, diarrhea (multiple causes).</t>
+  </si>
+  <si>
+    <t>A highly contagious respiratory infection in dogs, characterized by a harsh, hacking cough</t>
+  </si>
+  <si>
+    <t>Tick-borne bacterial infection (dogs, horses); lameness, fever.</t>
+  </si>
+  <si>
+    <t>Pancreatic inflammation (dogs/cats); vomiting, abdominal pain.</t>
+  </si>
+  <si>
+    <t>Includes Lyme, anaplasmosis, babesiosis; fever, lameness.</t>
+  </si>
+  <si>
+    <t>Bacterial respiratory disease in pigs causing severe pneumonia, sudden death.</t>
+  </si>
+  <si>
+    <t>Highly contagious viral disease in pigs; fever, hemorrhage, high mortality.</t>
+  </si>
+  <si>
+    <t>Viral disease in pigs; wasting, respiratory signs.</t>
+  </si>
+  <si>
+    <t>Severe diarrhea in pigs; high mortality in piglets.</t>
+  </si>
+  <si>
+    <t> “Blue ear” disease in pigs; reproductive failure, pneumonia.</t>
+  </si>
+  <si>
+    <t>Bacterial diarrhea in pigs; mucus/blood in feces.</t>
+  </si>
+  <si>
+    <t>Bacterial disease in pigs; diamond-shaped skin lesions, arthritis.</t>
+  </si>
+  <si>
+    <t>Viral hemorrhagic disease in pigs; high fever, mortality.</t>
+  </si>
+  <si>
+    <t>Respiratory virus in pigs; coughing, fever; zoonotic potential.</t>
+  </si>
+  <si>
+    <t>Learn more</t>
+  </si>
+  <si>
+    <t>Swine flu, or H1N1 influenza, is a respiratory disease of pigs caused by type A influenza viruses</t>
+  </si>
+  <si>
+    <t>Swine flu, is a respiratory disease of pigs caused by type A influenza viruses</t>
+  </si>
+  <si>
+    <t>PRDC is a multifactorial syndrome affecting pigs, caused by a combination of pathogens and environmental factors</t>
+  </si>
+  <si>
+    <t>An infectious disease characterized by hemorrhages and embolic lesions at multiple sites, more obviously in the lungs, and often by serous or serofibrinous exudates in the thorax and abdomen.</t>
+  </si>
+  <si>
+    <t>Mange is a skin disease caused by infestation of parasitic mites.</t>
+  </si>
+  <si>
+    <t>Treat with species-specific dewormers (e.g., fenbendazole, pyrantel) and hygiene to prevent reinfection.</t>
+  </si>
+  <si>
+    <t>vet-prescribed NSAIDs (e.g., carprofen), joint supplements (glucosamine/chondroitin), weight management, low-impact exercise, home modifications (orthopedic beds, ramps), and advanced options like monoclonal antibody therapy (Librela)</t>
+  </si>
+  <si>
+    <t>Supportive care (antivirals like famciclovir, lysine), antibiotics for secondary infections, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Rest, NSAIDs, supportive care, and vaccination to prevent outbreaks.</t>
+  </si>
+  <si>
+    <t>No cure; manage with antivirals (interferon), antibiotics for infections, and palliative care.</t>
+  </si>
+  <si>
+    <t>Experimental antivirals (e.g., GS-441524), supportive care, no definitive cure.</t>
+  </si>
+  <si>
+    <t>Isolation, NSAIDs, fluids; stallions may be culled to prevent spread.</t>
+  </si>
+  <si>
+    <t>There is no cure for Bovine Johne’s Disease (paratuberculosis), so management focuses on culling infected animals, improving herd biosecurity, ensuring calf hygiene, testing/surveillance, and vaccination (where available) to reduce transmission, alongside maintaining optimal nutrition and veterinary-guided protocols.</t>
+  </si>
+  <si>
+    <t>Antiprotozoals (imidocarb), supportive care, tick control to prevent transmission.</t>
+  </si>
+  <si>
+    <t>Bronchodilators, corticosteroids, antibiotics for infections, and environmental management.</t>
+  </si>
+  <si>
+    <t>No cure; infected horses are euthanized or isolated for life to prevent spread.</t>
+  </si>
+  <si>
+    <t>Supportive care, culling persistently infected animals, biosecurity, and vaccination.</t>
+  </si>
+  <si>
+    <t>NPO (nothing by mouth), IV fluids, pain management, and antibiotics if infected.</t>
+  </si>
+  <si>
+    <t>Antibiotics for secondary infections, antivirals (if severe), hydration, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Antiparasitics (nitazoxanide), fluids, and hygiene to limit zoonotic spread.</t>
+  </si>
+  <si>
+    <t>Dietary management (hypoallergenic food), corticosteroids, immunosuppressants.</t>
+  </si>
+  <si>
+    <t>There is no cure or specific antiviral treatment for Bovine Leukemia Virus (BLV); management focuses on culling infected animals, preventing transmission (e.g., sterilizing equipment, avoiding blood/milk transfer), testing/surveillance, maintaining herd health, and selective breeding for genetic resistance, with some countries implementing national eradication programs.</t>
+  </si>
+  <si>
+    <t>allergen avoidance, oral/nasal antihistamines (e.g., cetirizine, azelastine), intranasal corticosteroids (fluticasone, mometasone), immunotherapy (allergy shots/sublingual drops) for long-term relief, biologics (omalizumab) in severe cases, and avoiding prolonged nasal decongestants to prevent rebound congestion.</t>
+  </si>
+  <si>
+    <t>Antibiotics (doxycycline), NSAIDs, and vaccination in endemic areas.</t>
+  </si>
+  <si>
+    <t>Fluid therapy, phosphate binders, renal diets, and managing complications (e.g., anemia).</t>
+  </si>
+  <si>
+    <t>There is no direct antiviral treatment for Bovine Respiratory Syncytial Virus (BRSV); management includes antibiotics (e.g., florfenicol) for secondary bacterial infections, anti-inflammatories (NSAIDs), supportive care (fluids, nutrition), prevention via vaccination (multivalent vaccines), stress reduction, and improved herd ventilation</t>
+  </si>
+  <si>
+    <t>Antivirals, antibiotics for secondary infections, eye drops, and hydration.</t>
+  </si>
+  <si>
+    <t>Rest, fluids, antibiotics for pneumonia, and vaccination for prevention.</t>
+  </si>
+  <si>
+    <t>Supportive care (oxygen, fluids), antivirals (rarely), and prevention via hygiene.</t>
+  </si>
+  <si>
+    <t>Dopamine agonists (pergolide), dietary management, and hoof care.</t>
+  </si>
+  <si>
+    <t>Methimazole, radioactive iodine (I-131), or surgical thyroidectomy.</t>
+  </si>
+  <si>
+    <t>Supportive care (fluids, liver protectants), vaccination to prevent.</t>
+  </si>
+  <si>
+    <t>No cure; supportive care, vaccination, and mosquito control.</t>
+  </si>
+  <si>
+    <t>treatment includes antibiotics (e.g., tetracyclines, florfenicol), anti-inflammatories, supportive care (hydration, nutrition), and prevention via vaccination, biosecurity, and stress reduction</t>
+  </si>
+  <si>
+    <t>Antibiotics (enrofloxacin), nasal flushing, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Antibiotics (culture-guided), oxygen therapy, nebulization, and fluids.</t>
+  </si>
+  <si>
+    <t>Fluids, electrolytes, antibiotics (if bacterial), and dietary adjustment.</t>
+  </si>
+  <si>
+    <t>No cure; manage pain (NSAIDs), cull infected herds, and test kids.</t>
+  </si>
+  <si>
+    <t>Antivirals (oseltamivir), antibiotics for secondary infections, vaccination.</t>
+  </si>
+  <si>
+    <t>Manage with NSAIDs (e.g., phenylbutazone), joint supplements (hyaluronic acid), intra-articular therapies (steroids), and controlled exercise.</t>
+  </si>
+  <si>
+    <t>Fluid therapy, motility drugs (cisapride), fiber-rich diet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antivirals, antibiotics, nebulization, and isolation.</t>
+  </si>
+  <si>
+    <t>Treat with species-specific antibiotics, antivirals (if viral), supportive care (fluids, oxygen), and isolation to prevent spread.</t>
+  </si>
+  <si>
+    <t>Antibiotics (e.g., oxytetracycline), NSAIDs, improved ventilation, and vaccination for pathogens like Mannheimia haemolytica.</t>
+  </si>
+  <si>
+    <t>Antivirals (famciclovir), antibiotics (for secondary bacteria), nebulization, and stress reduction.</t>
+  </si>
+  <si>
+    <t>Similar to general respiratory infection: antibiotics, antivirals, hydration, and environmental management.</t>
+  </si>
+  <si>
+    <t>Antibiotics (oxytetracycline), hoof trimming, and dry environment.</t>
+  </si>
+  <si>
+    <t>Fluids, electrolytes, antibiotics (if bacterial), probiotics, and dietary management.</t>
+  </si>
+  <si>
+    <t>Weight loss, low-sugar diet, exercise, and metformin (if needed).</t>
+  </si>
+  <si>
+    <t>No cure; euthanasia recommended; prevention via vaccination and flea control.</t>
+  </si>
+  <si>
+    <t>Lance/drain abscesses, long-term antibiotics (penicillin), cull chronic cases.</t>
+  </si>
+  <si>
+    <t>Antibiotics (tylosin, oxytetracycline), NSAIDs, and isolation.</t>
+  </si>
+  <si>
+    <t>Doxycycline, fluids, liver/kidney support, and vaccination.</t>
+  </si>
+  <si>
+    <t>Penicillin-G injections, hygiene, and isolate infected rabbits.</t>
+  </si>
+  <si>
+    <t>Tetracyclines, culling chronic cases, and vaccination.</t>
+  </si>
+  <si>
+    <t>Antibiotics (doxycycline), eye ointments, and hygiene.</t>
+  </si>
+  <si>
+    <t>Isolation, NSAIDs, antiviral drugs (e.g., valacyclovir in neurologic cases), and vaccination to reduce outbreaks.</t>
+  </si>
+  <si>
+    <t>Rest, fluids, antibiotics for secondary pneumonia, and vaccination to prevent spread.</t>
+  </si>
+  <si>
+    <t>Antiprotozoals (ponazuril, diclazuril), NSAIDs.</t>
+  </si>
+  <si>
+    <t>Antibiotics (florfenicol), vaccines, and improved ventilation.</t>
+  </si>
+  <si>
+    <t>No treatment for asymptomatic cases; manage stress and hygiene.</t>
+  </si>
+  <si>
+    <t>Supportive care (fluids, anti-seizure meds), vaccination, and mosquito control to prevent transmission.</t>
+  </si>
+  <si>
+    <t>There is no direct antiviral treatment for Bovine Parainfluenza Virus (BPIV-3), but management focuses on controlling secondary bacterial infections with antibiotics (e.g., florfenicol, tetracyclines), anti-inflammatories (NSAIDs), supportive care (hydration, nutrition), and prevention via vaccination (multivalent vaccines targeting PI3), stress reduction, and biosecurity measures.</t>
+  </si>
+  <si>
+    <t>Supportive care, NSAIDs, cull infected goats to prevent spread.</t>
+  </si>
+  <si>
+    <t>Corticosteroids, bronchodilators, and reducing environmental triggers.</t>
+  </si>
+  <si>
+    <t>No treatment; vaccination and strict biosecurity.</t>
+  </si>
+  <si>
+    <t>No cure; cull infected flocks, test and isolate new stock.</t>
+  </si>
+  <si>
+    <t>Penicillin, vaccination, and hygiene to control outbreaks.</t>
+  </si>
+  <si>
+    <t>ull infected animals; antibiotics (tetracycline + streptomycin)</t>
+  </si>
+  <si>
+    <t>Antivirals (oseltamivir), antibiotics for secondary infections, vaccination, and improved biosecurity.</t>
+  </si>
+  <si>
+    <t>No cure; culling, quarantine, and vaccination (classical swine fever only).</t>
+  </si>
+  <si>
+    <t>No treatment; strict biosecurity and vaccination.</t>
+  </si>
+  <si>
+    <t>No cure; vaccination, quarantine, and cull infected herds.</t>
+  </si>
+  <si>
+    <t>Supportive care, liver protectants, and vaccination.</t>
+  </si>
+  <si>
+    <t>Vaccination, antibiotics for secondary infections, improve husbandry.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,6 +1573,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1562,8 +1926,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1919,20 +2284,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W432"/>
+  <dimension ref="A1:X433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V436" sqref="V436"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="22" max="22" width="55.85546875" customWidth="1"/>
-    <col min="23" max="23" width="85" customWidth="1"/>
+    <col min="23" max="23" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,10 +2364,13 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="X1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2071,10 +2438,13 @@
         <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2142,10 +2512,10 @@
         <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2213,10 +2583,10 @@
         <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2284,10 +2654,13 @@
         <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2355,10 +2728,10 @@
         <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2423,13 +2796,13 @@
         <v>85</v>
       </c>
       <c r="V7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2497,10 +2870,13 @@
         <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="X8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2567,8 +2943,11 @@
       <c r="V9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2636,10 +3015,13 @@
         <v>72</v>
       </c>
       <c r="W10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2707,10 +3089,10 @@
         <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2778,10 +3160,10 @@
         <v>79</v>
       </c>
       <c r="W12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2849,10 +3231,13 @@
         <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2920,10 +3305,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2991,10 +3376,10 @@
         <v>87</v>
       </c>
       <c r="W15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3062,10 +3447,10 @@
         <v>90</v>
       </c>
       <c r="W16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3133,10 +3518,13 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3204,10 +3592,10 @@
         <v>94</v>
       </c>
       <c r="W18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3275,10 +3663,13 @@
         <v>96</v>
       </c>
       <c r="W19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="X19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3343,13 +3734,13 @@
         <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3417,10 +3808,10 @@
         <v>41</v>
       </c>
       <c r="W21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3488,10 +3879,10 @@
         <v>77</v>
       </c>
       <c r="W22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3556,13 +3947,13 @@
         <v>90</v>
       </c>
       <c r="V23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W23" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3630,10 +4021,13 @@
         <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3701,10 +4095,10 @@
         <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -3772,10 +4166,10 @@
         <v>90</v>
       </c>
       <c r="W26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3842,8 +4236,14 @@
       <c r="V27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>402</v>
+      </c>
+      <c r="X27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3910,8 +4310,11 @@
       <c r="V28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3978,8 +4381,11 @@
       <c r="V29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4047,10 +4453,13 @@
         <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4117,8 +4526,11 @@
       <c r="V31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4186,10 +4598,10 @@
         <v>77</v>
       </c>
       <c r="W32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4254,13 +4666,16 @@
         <v>125</v>
       </c>
       <c r="V33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="X33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4327,8 +4742,11 @@
       <c r="V34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -4395,8 +4813,11 @@
       <c r="V35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4463,8 +4884,11 @@
       <c r="V36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -4532,10 +4956,13 @@
         <v>72</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -4603,10 +5030,10 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4673,8 +5100,11 @@
       <c r="V39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4742,10 +5172,10 @@
         <v>117</v>
       </c>
       <c r="W40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -4812,8 +5242,14 @@
       <c r="V41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>410</v>
+      </c>
+      <c r="X41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4881,10 +5317,10 @@
         <v>41</v>
       </c>
       <c r="W42" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -4952,10 +5388,13 @@
         <v>32</v>
       </c>
       <c r="W43" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -5023,10 +5462,10 @@
         <v>41</v>
       </c>
       <c r="W44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5094,10 +5533,10 @@
         <v>123</v>
       </c>
       <c r="W45" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5165,10 +5604,10 @@
         <v>90</v>
       </c>
       <c r="W46" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -5236,10 +5675,13 @@
         <v>51</v>
       </c>
       <c r="W47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -5306,8 +5748,11 @@
       <c r="V48" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5374,8 +5819,11 @@
       <c r="V49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5442,8 +5890,11 @@
       <c r="V50" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -5511,10 +5962,13 @@
         <v>82</v>
       </c>
       <c r="W51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5581,8 +6035,11 @@
       <c r="V52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5650,10 +6107,10 @@
         <v>130</v>
       </c>
       <c r="W53" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5721,10 +6178,10 @@
         <v>77</v>
       </c>
       <c r="W54" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -5792,10 +6249,13 @@
         <v>32</v>
       </c>
       <c r="W55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -5862,8 +6322,11 @@
       <c r="V56" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5931,10 +6394,10 @@
         <v>156</v>
       </c>
       <c r="W57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -6001,8 +6464,11 @@
       <c r="V58" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -6070,10 +6536,13 @@
         <v>82</v>
       </c>
       <c r="W59" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -6140,8 +6609,11 @@
       <c r="V60" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -6209,10 +6681,10 @@
         <v>142</v>
       </c>
       <c r="W61" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -6279,8 +6751,11 @@
       <c r="V62" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -6347,8 +6822,14 @@
       <c r="V63" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W63" t="s">
+        <v>418</v>
+      </c>
+      <c r="X63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6416,10 +6897,10 @@
         <v>51</v>
       </c>
       <c r="W64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -6486,8 +6967,11 @@
       <c r="V65" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6555,10 +7039,10 @@
         <v>149</v>
       </c>
       <c r="W66" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -6626,10 +7110,13 @@
         <v>51</v>
       </c>
       <c r="W67" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -6696,8 +7183,11 @@
       <c r="V68" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -6762,13 +7252,13 @@
         <v>72</v>
       </c>
       <c r="V69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W69" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -6835,8 +7325,11 @@
       <c r="V70" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -6904,10 +7397,13 @@
         <v>72</v>
       </c>
       <c r="W71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -6974,8 +7470,11 @@
       <c r="V72" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -7043,10 +7542,13 @@
         <v>82</v>
       </c>
       <c r="W73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -7113,8 +7615,11 @@
       <c r="V74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -7182,10 +7687,10 @@
         <v>156</v>
       </c>
       <c r="W75" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -7253,10 +7758,10 @@
         <v>157</v>
       </c>
       <c r="W76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -7324,10 +7829,13 @@
         <v>51</v>
       </c>
       <c r="W77" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -7395,10 +7903,10 @@
         <v>79</v>
       </c>
       <c r="W78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -7463,13 +7971,13 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -7536,8 +8044,11 @@
       <c r="V80" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -7605,10 +8116,13 @@
         <v>32</v>
       </c>
       <c r="W81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -7675,8 +8189,11 @@
       <c r="V82" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -7744,10 +8261,10 @@
         <v>123</v>
       </c>
       <c r="W83" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -7815,10 +8332,10 @@
         <v>117</v>
       </c>
       <c r="W84" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -7885,8 +8402,14 @@
       <c r="V85" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W85" t="s">
+        <v>423</v>
+      </c>
+      <c r="X85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -7953,8 +8476,11 @@
       <c r="V86" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -8021,8 +8547,11 @@
       <c r="V87" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -8089,8 +8618,11 @@
       <c r="V88" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -8158,10 +8690,13 @@
         <v>51</v>
       </c>
       <c r="W89" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8228,8 +8763,11 @@
       <c r="V90" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W90" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -8296,8 +8834,11 @@
       <c r="V91" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W91" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -8365,10 +8906,10 @@
         <v>172</v>
       </c>
       <c r="W92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -8435,8 +8976,14 @@
       <c r="V93" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W93" t="s">
+        <v>413</v>
+      </c>
+      <c r="X93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8503,8 +9050,11 @@
       <c r="V94" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -8572,10 +9122,10 @@
         <v>123</v>
       </c>
       <c r="W95" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -8643,10 +9193,10 @@
         <v>149</v>
       </c>
       <c r="W96" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -8713,8 +9263,14 @@
       <c r="V97" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W97" t="s">
+        <v>427</v>
+      </c>
+      <c r="X97" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -8782,10 +9338,10 @@
         <v>41</v>
       </c>
       <c r="W98" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -8852,8 +9408,11 @@
       <c r="V99" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -8920,8 +9479,11 @@
       <c r="V100" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -8989,10 +9551,13 @@
         <v>51</v>
       </c>
       <c r="W101" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X101" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -9059,8 +9624,11 @@
       <c r="V102" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -9128,10 +9696,13 @@
         <v>51</v>
       </c>
       <c r="W103" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X103" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -9199,10 +9770,10 @@
         <v>41</v>
       </c>
       <c r="W104" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -9270,10 +9841,10 @@
         <v>123</v>
       </c>
       <c r="W105" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -9340,8 +9911,11 @@
       <c r="V106" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W106" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -9408,8 +9982,14 @@
       <c r="V107" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W107" t="s">
+        <v>430</v>
+      </c>
+      <c r="X107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -9476,8 +10056,11 @@
       <c r="V108" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -9545,10 +10128,10 @@
         <v>191</v>
       </c>
       <c r="W109" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -9616,10 +10199,13 @@
         <v>194</v>
       </c>
       <c r="W110" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="X110" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -9687,10 +10273,13 @@
         <v>32</v>
       </c>
       <c r="W111" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X111" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -9757,8 +10346,11 @@
       <c r="V112" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W112" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -9826,10 +10418,10 @@
         <v>156</v>
       </c>
       <c r="W113" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -9897,10 +10489,10 @@
         <v>90</v>
       </c>
       <c r="W114" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -9967,8 +10559,14 @@
       <c r="V115" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W115" t="s">
+        <v>432</v>
+      </c>
+      <c r="X115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -10033,13 +10631,13 @@
         <v>77</v>
       </c>
       <c r="V116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W116" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -10106,8 +10704,11 @@
       <c r="V117" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W117" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -10174,8 +10775,14 @@
       <c r="V118" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W118" t="s">
+        <v>434</v>
+      </c>
+      <c r="X118" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -10242,8 +10849,14 @@
       <c r="V119" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W119" t="s">
+        <v>413</v>
+      </c>
+      <c r="X119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -10310,8 +10923,11 @@
       <c r="V120" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W120" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -10378,8 +10994,11 @@
       <c r="V121" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W121" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -10446,8 +11065,11 @@
       <c r="V122" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W122" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -10514,8 +11136,14 @@
       <c r="V123" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W123" t="s">
+        <v>436</v>
+      </c>
+      <c r="X123" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>186</v>
       </c>
@@ -10582,8 +11210,11 @@
       <c r="V124" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W124" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -10651,10 +11282,10 @@
         <v>212</v>
       </c>
       <c r="W125" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -10722,10 +11353,13 @@
         <v>32</v>
       </c>
       <c r="W126" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X126" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -10792,8 +11426,11 @@
       <c r="V127" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W127" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -10861,10 +11498,10 @@
         <v>215</v>
       </c>
       <c r="W128" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -10932,10 +11569,10 @@
         <v>172</v>
       </c>
       <c r="W129" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -11003,10 +11640,13 @@
         <v>217</v>
       </c>
       <c r="W130" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -11074,10 +11714,10 @@
         <v>47</v>
       </c>
       <c r="W131" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -11145,10 +11785,10 @@
         <v>191</v>
       </c>
       <c r="W132" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -11216,10 +11856,13 @@
         <v>222</v>
       </c>
       <c r="W133" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X133" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -11286,8 +11929,14 @@
       <c r="V134" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W134" t="s">
+        <v>427</v>
+      </c>
+      <c r="X134" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -11354,8 +12003,11 @@
       <c r="V135" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W135" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -11422,8 +12074,11 @@
       <c r="V136" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -11491,10 +12146,10 @@
         <v>90</v>
       </c>
       <c r="W137" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -11561,8 +12216,14 @@
       <c r="V138" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W138" t="s">
+        <v>438</v>
+      </c>
+      <c r="X138" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -11627,13 +12288,13 @@
         <v>76</v>
       </c>
       <c r="V139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W139" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -11700,8 +12361,11 @@
       <c r="V140" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>192</v>
       </c>
@@ -11769,10 +12433,13 @@
         <v>231</v>
       </c>
       <c r="W141" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="X141" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -11840,10 +12507,13 @@
         <v>82</v>
       </c>
       <c r="W142" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X142" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -11910,8 +12580,11 @@
       <c r="V143" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -11978,8 +12651,11 @@
       <c r="V144" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W144" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -12047,10 +12723,10 @@
         <v>172</v>
       </c>
       <c r="W145" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>183</v>
       </c>
@@ -12115,15 +12791,21 @@
         <v>155</v>
       </c>
       <c r="V146" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="W146" t="s">
+        <v>441</v>
+      </c>
+      <c r="X146" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -12183,15 +12865,18 @@
         <v>75</v>
       </c>
       <c r="V147" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="W147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -12251,15 +12936,18 @@
         <v>82</v>
       </c>
       <c r="V148" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="W148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -12322,10 +13010,13 @@
         <v>222</v>
       </c>
       <c r="W149" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X149" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -12393,10 +13084,13 @@
         <v>32</v>
       </c>
       <c r="W150" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X150" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -12463,8 +13157,11 @@
       <c r="V151" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W151" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>57</v>
       </c>
@@ -12529,10 +13226,13 @@
         <v>77</v>
       </c>
       <c r="V152" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="W152" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -12599,8 +13299,11 @@
       <c r="V153" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W153" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -12667,8 +13370,14 @@
       <c r="V154" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W154" t="s">
+        <v>430</v>
+      </c>
+      <c r="X154" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -12736,10 +13445,13 @@
         <v>32</v>
       </c>
       <c r="W155" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X155" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -12806,8 +13518,11 @@
       <c r="V156" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>57</v>
       </c>
@@ -12830,7 +13545,7 @@
         <v>121</v>
       </c>
       <c r="H157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I157" t="s">
         <v>25</v>
@@ -12872,13 +13587,13 @@
         <v>75</v>
       </c>
       <c r="V157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W157" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -12946,10 +13661,10 @@
         <v>90</v>
       </c>
       <c r="W158" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13017,15 +13732,18 @@
         <v>217</v>
       </c>
       <c r="W159" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X159" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>186</v>
       </c>
       <c r="B160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -13085,13 +13803,13 @@
         <v>76</v>
       </c>
       <c r="V160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W160" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -13158,8 +13876,11 @@
       <c r="V161" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W161" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>192</v>
       </c>
@@ -13226,13 +13947,19 @@
       <c r="V162" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W162" t="s">
+        <v>434</v>
+      </c>
+      <c r="X162" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C163">
         <v>6</v>
@@ -13295,10 +14022,13 @@
         <v>72</v>
       </c>
       <c r="W163" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X163" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -13365,13 +14095,16 @@
       <c r="V164" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -13392,7 +14125,7 @@
         <v>121</v>
       </c>
       <c r="I165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J165" t="s">
         <v>62</v>
@@ -13433,13 +14166,16 @@
       <c r="V165" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W165" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -13502,15 +14238,15 @@
         <v>172</v>
       </c>
       <c r="W166" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -13570,10 +14306,16 @@
         <v>155</v>
       </c>
       <c r="V167" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W167" t="s">
+        <v>445</v>
+      </c>
+      <c r="X167" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -13638,10 +14380,13 @@
         <v>78</v>
       </c>
       <c r="V168" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="W168" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -13706,15 +14451,18 @@
         <v>80</v>
       </c>
       <c r="V169" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="W169" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -13777,15 +14525,18 @@
         <v>222</v>
       </c>
       <c r="W170" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X170" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -13845,10 +14596,16 @@
         <v>125</v>
       </c>
       <c r="V171" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W171" t="s">
+        <v>448</v>
+      </c>
+      <c r="X171" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>33</v>
       </c>
@@ -13915,13 +14672,16 @@
       <c r="V172" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173">
         <v>12</v>
@@ -13939,7 +14699,7 @@
         <v>27</v>
       </c>
       <c r="H173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I173" t="s">
         <v>25</v>
@@ -13984,10 +14744,10 @@
         <v>156</v>
       </c>
       <c r="W173" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -14054,8 +14814,11 @@
       <c r="V174" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W174" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -14120,15 +14883,21 @@
         <v>160</v>
       </c>
       <c r="V175" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="W175" t="s">
+        <v>449</v>
+      </c>
+      <c r="X175" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -14188,10 +14957,13 @@
         <v>74</v>
       </c>
       <c r="V176" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="W176" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -14258,13 +15030,16 @@
       <c r="V177" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W177" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -14324,18 +15099,21 @@
         <v>84</v>
       </c>
       <c r="V178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179">
         <v>5</v>
@@ -14395,10 +15173,16 @@
         <v>123</v>
       </c>
       <c r="V179" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W179" t="s">
+        <v>448</v>
+      </c>
+      <c r="X179" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>33</v>
       </c>
@@ -14463,10 +15247,13 @@
         <v>147</v>
       </c>
       <c r="V180" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W180" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -14489,7 +15276,7 @@
         <v>121</v>
       </c>
       <c r="H181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -14531,13 +15318,13 @@
         <v>79</v>
       </c>
       <c r="V181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W181" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -14604,8 +15391,11 @@
       <c r="V182" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W182" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -14670,10 +15460,16 @@
         <v>153</v>
       </c>
       <c r="V183" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W183" t="s">
+        <v>445</v>
+      </c>
+      <c r="X183" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -14741,10 +15537,13 @@
         <v>32</v>
       </c>
       <c r="W184" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X184" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -14811,8 +15610,11 @@
       <c r="V185" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W185" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -14879,8 +15681,11 @@
       <c r="V186" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W186" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -14947,13 +15752,16 @@
       <c r="V187" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W187" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -15013,15 +15821,21 @@
         <v>155</v>
       </c>
       <c r="V188" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="W188" t="s">
+        <v>449</v>
+      </c>
+      <c r="X188" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -15081,18 +15895,18 @@
         <v>75</v>
       </c>
       <c r="V189" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W189" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -15152,10 +15966,13 @@
         <v>80</v>
       </c>
       <c r="V190" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="W190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -15223,10 +16040,13 @@
         <v>194</v>
       </c>
       <c r="W191" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="X191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -15294,10 +16114,13 @@
         <v>72</v>
       </c>
       <c r="W192" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X192" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -15364,8 +16187,11 @@
       <c r="V193" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W193" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>57</v>
       </c>
@@ -15388,7 +16214,7 @@
         <v>121</v>
       </c>
       <c r="H194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I194" t="s">
         <v>25</v>
@@ -15430,10 +16256,13 @@
         <v>76</v>
       </c>
       <c r="V194" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -15459,7 +16288,7 @@
         <v>121</v>
       </c>
       <c r="I195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J195" t="s">
         <v>70</v>
@@ -15501,10 +16330,10 @@
         <v>172</v>
       </c>
       <c r="W195" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -15569,15 +16398,21 @@
         <v>160</v>
       </c>
       <c r="V196" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W196" t="s">
+        <v>445</v>
+      </c>
+      <c r="X196" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -15637,15 +16472,18 @@
         <v>74</v>
       </c>
       <c r="V197" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="W197" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -15707,13 +16545,16 @@
       <c r="V198" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W198" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -15775,8 +16616,14 @@
       <c r="V199" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W199" t="s">
+        <v>434</v>
+      </c>
+      <c r="X199" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -15841,10 +16688,16 @@
         <v>118</v>
       </c>
       <c r="V200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W200" t="s">
+        <v>448</v>
+      </c>
+      <c r="X200" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -15911,8 +16764,11 @@
       <c r="V201" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W201" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>57</v>
       </c>
@@ -15935,7 +16791,7 @@
         <v>121</v>
       </c>
       <c r="H202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I202" t="s">
         <v>25</v>
@@ -15977,18 +16833,18 @@
         <v>78</v>
       </c>
       <c r="V202" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W202" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>42</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C203">
         <v>6</v>
@@ -16051,10 +16907,10 @@
         <v>90</v>
       </c>
       <c r="W203" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>183</v>
       </c>
@@ -16122,15 +16978,18 @@
         <v>217</v>
       </c>
       <c r="W204" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -16193,10 +17052,10 @@
         <v>47</v>
       </c>
       <c r="W205" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>189</v>
       </c>
@@ -16261,10 +17120,13 @@
         <v>81</v>
       </c>
       <c r="V206" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="W206" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -16329,13 +17191,16 @@
         <v>88</v>
       </c>
       <c r="V207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W207" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="X207" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -16403,10 +17268,13 @@
         <v>82</v>
       </c>
       <c r="W208" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X208" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -16473,8 +17341,11 @@
       <c r="V209" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W209" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -16497,7 +17368,7 @@
         <v>121</v>
       </c>
       <c r="H210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I210" t="s">
         <v>25</v>
@@ -16539,15 +17410,18 @@
         <v>77</v>
       </c>
       <c r="V210" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W210" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C211">
         <v>4</v>
@@ -16568,7 +17442,7 @@
         <v>121</v>
       </c>
       <c r="I211" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J211" t="s">
         <v>70</v>
@@ -16610,10 +17484,10 @@
         <v>172</v>
       </c>
       <c r="W211" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -16678,10 +17552,16 @@
         <v>125</v>
       </c>
       <c r="V212" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="W212" t="s">
+        <v>453</v>
+      </c>
+      <c r="X212" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -16748,8 +17628,11 @@
       <c r="V213" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W213" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -16772,7 +17655,7 @@
         <v>121</v>
       </c>
       <c r="H214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I214" t="s">
         <v>25</v>
@@ -16814,10 +17697,13 @@
         <v>85</v>
       </c>
       <c r="V214" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="W214" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -16885,10 +17771,10 @@
         <v>172</v>
       </c>
       <c r="W215" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -16956,10 +17842,13 @@
         <v>217</v>
       </c>
       <c r="W216" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X216" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>186</v>
       </c>
@@ -17027,10 +17916,10 @@
         <v>47</v>
       </c>
       <c r="W217" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>189</v>
       </c>
@@ -17097,8 +17986,11 @@
       <c r="V218" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W218" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -17163,10 +18055,16 @@
         <v>83</v>
       </c>
       <c r="V219" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="W219" t="s">
+        <v>455</v>
+      </c>
+      <c r="X219" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -17234,10 +18132,13 @@
         <v>32</v>
       </c>
       <c r="W220" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X220" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -17304,13 +18205,16 @@
       <c r="V221" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W221" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C222">
         <v>8</v>
@@ -17328,7 +18232,7 @@
         <v>121</v>
       </c>
       <c r="H222" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I222" t="s">
         <v>25</v>
@@ -17370,13 +18274,13 @@
         <v>87</v>
       </c>
       <c r="V222" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W222" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -17443,13 +18347,16 @@
       <c r="V223" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W223" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>183</v>
       </c>
       <c r="B224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -17509,15 +18416,21 @@
         <v>158</v>
       </c>
       <c r="V224" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W224" t="s">
+        <v>445</v>
+      </c>
+      <c r="X224" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>186</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -17577,18 +18490,18 @@
         <v>75</v>
       </c>
       <c r="V225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W225" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>189</v>
       </c>
       <c r="B226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C226">
         <v>6</v>
@@ -17648,15 +18561,18 @@
         <v>83</v>
       </c>
       <c r="V226" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="W226" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>192</v>
       </c>
       <c r="B227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -17719,10 +18635,13 @@
         <v>194</v>
       </c>
       <c r="W227" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="X227" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -17790,10 +18709,13 @@
         <v>72</v>
       </c>
       <c r="W228" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X228" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -17860,13 +18782,16 @@
       <c r="V229" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W229" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>57</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C230">
         <v>6</v>
@@ -17881,7 +18806,7 @@
         <v>15</v>
       </c>
       <c r="G230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H230" t="s">
         <v>121</v>
@@ -17928,13 +18853,16 @@
       <c r="V230" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W230" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>42</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -17996,8 +18924,11 @@
       <c r="V231" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W231" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -18062,15 +18993,21 @@
         <v>153</v>
       </c>
       <c r="V232" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="W232" t="s">
+        <v>449</v>
+      </c>
+      <c r="X232" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>186</v>
       </c>
       <c r="B233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C233">
         <v>4</v>
@@ -18130,13 +19067,13 @@
         <v>76</v>
       </c>
       <c r="V233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W233" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>189</v>
       </c>
@@ -18201,15 +19138,18 @@
         <v>80</v>
       </c>
       <c r="V234" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="W234" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>192</v>
       </c>
       <c r="B235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -18269,10 +19209,13 @@
         <v>86</v>
       </c>
       <c r="V235" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="W235" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -18340,10 +19283,13 @@
         <v>72</v>
       </c>
       <c r="W236" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X236" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -18408,10 +19354,13 @@
         <v>148</v>
       </c>
       <c r="V237" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="W237" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -18431,7 +19380,7 @@
         <v>15</v>
       </c>
       <c r="G238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H238" t="s">
         <v>121</v>
@@ -18476,18 +19425,18 @@
         <v>80</v>
       </c>
       <c r="V238" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W238" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>42</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -18550,10 +19499,10 @@
         <v>172</v>
       </c>
       <c r="W239" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -18621,10 +19570,13 @@
         <v>32</v>
       </c>
       <c r="W240" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X240" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>33</v>
       </c>
@@ -18692,10 +19644,10 @@
         <v>41</v>
       </c>
       <c r="W241" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -18715,7 +19667,7 @@
         <v>15</v>
       </c>
       <c r="G242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H242" t="s">
         <v>121</v>
@@ -18760,10 +19712,13 @@
         <v>82</v>
       </c>
       <c r="V242" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -18831,10 +19786,10 @@
         <v>90</v>
       </c>
       <c r="W243" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>183</v>
       </c>
@@ -18902,15 +19857,18 @@
         <v>217</v>
       </c>
       <c r="W244" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X244" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>186</v>
       </c>
       <c r="B245" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C245">
         <v>6</v>
@@ -18970,13 +19928,13 @@
         <v>74</v>
       </c>
       <c r="V245" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W245" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>189</v>
       </c>
@@ -19043,8 +20001,11 @@
       <c r="V246" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W246" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>192</v>
       </c>
@@ -19111,8 +20072,14 @@
       <c r="V247" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W247" t="s">
+        <v>434</v>
+      </c>
+      <c r="X247" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -19179,8 +20146,14 @@
       <c r="V248" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W248" t="s">
+        <v>427</v>
+      </c>
+      <c r="X248" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -19247,13 +20220,16 @@
       <c r="V249" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W249" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>57</v>
       </c>
       <c r="B250" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C250">
         <v>8</v>
@@ -19268,7 +20244,7 @@
         <v>15</v>
       </c>
       <c r="G250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H250" t="s">
         <v>121</v>
@@ -19313,10 +20289,13 @@
         <v>88</v>
       </c>
       <c r="V250" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="W250" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>42</v>
       </c>
@@ -19381,10 +20360,13 @@
         <v>78</v>
       </c>
       <c r="V251" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="W251" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>183</v>
       </c>
@@ -19451,13 +20433,19 @@
       <c r="V252" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W252" t="s">
+        <v>430</v>
+      </c>
+      <c r="X252" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>186</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C253">
         <v>4</v>
@@ -19517,13 +20505,13 @@
         <v>76</v>
       </c>
       <c r="V253" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W253" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>189</v>
       </c>
@@ -19588,15 +20576,18 @@
         <v>82</v>
       </c>
       <c r="V254" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="W254" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>192</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -19659,10 +20650,13 @@
         <v>222</v>
       </c>
       <c r="W255" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X255" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -19727,10 +20721,16 @@
         <v>125</v>
       </c>
       <c r="V256" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W256" t="s">
+        <v>448</v>
+      </c>
+      <c r="X256" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -19795,10 +20795,13 @@
         <v>145</v>
       </c>
       <c r="V257" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="W257" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>57</v>
       </c>
@@ -19818,7 +20821,7 @@
         <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H258" t="s">
         <v>121</v>
@@ -19863,18 +20866,18 @@
         <v>84</v>
       </c>
       <c r="V258" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W258" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>42</v>
       </c>
       <c r="B259" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -19937,10 +20940,10 @@
         <v>172</v>
       </c>
       <c r="W259" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -20005,10 +21008,16 @@
         <v>150</v>
       </c>
       <c r="V260" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="W260" t="s">
+        <v>461</v>
+      </c>
+      <c r="X260" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>186</v>
       </c>
@@ -20073,10 +21082,13 @@
         <v>75</v>
       </c>
       <c r="V261" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="W261" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>189</v>
       </c>
@@ -20141,15 +21153,18 @@
         <v>80</v>
       </c>
       <c r="V262" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="W262" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>192</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -20209,10 +21224,16 @@
         <v>88</v>
       </c>
       <c r="V263" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="W263" t="s">
+        <v>463</v>
+      </c>
+      <c r="X263" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -20280,10 +21301,13 @@
         <v>82</v>
       </c>
       <c r="W264" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X264" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -20350,8 +21374,11 @@
       <c r="V265" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W265" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -20374,7 +21401,7 @@
         <v>121</v>
       </c>
       <c r="H266" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I266" t="s">
         <v>25</v>
@@ -20418,8 +21445,11 @@
       <c r="V266" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W266" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -20486,13 +21516,16 @@
       <c r="V267" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W267" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>183</v>
       </c>
       <c r="B268" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -20552,15 +21585,21 @@
         <v>155</v>
       </c>
       <c r="V268" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W268" t="s">
+        <v>445</v>
+      </c>
+      <c r="X268" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>186</v>
       </c>
       <c r="B269" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -20620,18 +21659,18 @@
         <v>77</v>
       </c>
       <c r="V269" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W269" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>189</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -20693,13 +21732,16 @@
       <c r="V270" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W270" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>192</v>
       </c>
       <c r="B271" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C271">
         <v>6</v>
@@ -20762,10 +21804,13 @@
         <v>222</v>
       </c>
       <c r="W271" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X271" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -20833,10 +21878,13 @@
         <v>32</v>
       </c>
       <c r="W272" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X272" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -20901,10 +21949,13 @@
         <v>135</v>
       </c>
       <c r="V273" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="W273" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>57</v>
       </c>
@@ -20924,7 +21975,7 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H274" t="s">
         <v>121</v>
@@ -20971,13 +22022,16 @@
       <c r="V274" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W274" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>42</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -21040,10 +22094,10 @@
         <v>172</v>
       </c>
       <c r="W275" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>183</v>
       </c>
@@ -21110,8 +22164,14 @@
       <c r="V276" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W276" t="s">
+        <v>430</v>
+      </c>
+      <c r="X276" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>186</v>
       </c>
@@ -21176,10 +22236,13 @@
         <v>78</v>
       </c>
       <c r="V277" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="W277" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>189</v>
       </c>
@@ -21246,8 +22309,11 @@
       <c r="V278" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W278" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>192</v>
       </c>
@@ -21315,10 +22381,13 @@
         <v>231</v>
       </c>
       <c r="W279" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="X279" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -21383,10 +22452,16 @@
         <v>115</v>
       </c>
       <c r="V280" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W280" t="s">
+        <v>448</v>
+      </c>
+      <c r="X280" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -21453,8 +22528,11 @@
       <c r="V281" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W281" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>57</v>
       </c>
@@ -21477,7 +22555,7 @@
         <v>121</v>
       </c>
       <c r="H282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I282" t="s">
         <v>25</v>
@@ -21519,15 +22597,18 @@
         <v>80</v>
       </c>
       <c r="V282" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W282" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>42</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C283">
         <v>4</v>
@@ -21590,10 +22671,10 @@
         <v>172</v>
       </c>
       <c r="W283" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>183</v>
       </c>
@@ -21661,10 +22742,13 @@
         <v>217</v>
       </c>
       <c r="W284" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X284" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>186</v>
       </c>
@@ -21732,15 +22816,15 @@
         <v>47</v>
       </c>
       <c r="W285" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>189</v>
       </c>
       <c r="B286" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286">
         <v>4</v>
@@ -21802,13 +22886,16 @@
       <c r="V286" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W286" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>192</v>
       </c>
       <c r="B287" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C287">
         <v>5</v>
@@ -21868,15 +22955,21 @@
         <v>90</v>
       </c>
       <c r="V287" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="W287" t="s">
+        <v>465</v>
+      </c>
+      <c r="X287" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>22</v>
       </c>
       <c r="B288" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C288">
         <v>4</v>
@@ -21936,13 +23029,16 @@
         <v>100</v>
       </c>
       <c r="V288" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W288" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="X288" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>33</v>
       </c>
@@ -22009,8 +23105,14 @@
       <c r="V289" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W289" t="s">
+        <v>405</v>
+      </c>
+      <c r="X289" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>57</v>
       </c>
@@ -22033,7 +23135,7 @@
         <v>121</v>
       </c>
       <c r="H290" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I290" t="s">
         <v>25</v>
@@ -22075,13 +23177,13 @@
         <v>78</v>
       </c>
       <c r="V290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W290" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>22</v>
       </c>
@@ -22149,10 +23251,13 @@
         <v>82</v>
       </c>
       <c r="W291" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X291" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -22219,8 +23324,11 @@
       <c r="V292" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W292" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>57</v>
       </c>
@@ -22240,7 +23348,7 @@
         <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H293" t="s">
         <v>121</v>
@@ -22285,10 +23393,13 @@
         <v>90</v>
       </c>
       <c r="V293" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="W293" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -22356,10 +23467,10 @@
         <v>90</v>
       </c>
       <c r="W294" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>183</v>
       </c>
@@ -22427,15 +23538,18 @@
         <v>217</v>
       </c>
       <c r="W295" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X295" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>186</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C296">
         <v>5</v>
@@ -22495,13 +23609,13 @@
         <v>78</v>
       </c>
       <c r="V296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W296" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>189</v>
       </c>
@@ -22568,8 +23682,11 @@
       <c r="V297" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W297" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>192</v>
       </c>
@@ -22634,10 +23751,16 @@
         <v>100</v>
       </c>
       <c r="V298" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="W298" t="s">
+        <v>466</v>
+      </c>
+      <c r="X298" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
@@ -22705,10 +23828,13 @@
         <v>32</v>
       </c>
       <c r="W299" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X299" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -22776,10 +23902,10 @@
         <v>79</v>
       </c>
       <c r="W300" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>57</v>
       </c>
@@ -22799,7 +23925,7 @@
         <v>15</v>
       </c>
       <c r="G301" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H301" t="s">
         <v>121</v>
@@ -22844,10 +23970,13 @@
         <v>85</v>
       </c>
       <c r="V301" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="W301" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -22914,8 +24043,11 @@
       <c r="V302" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W302" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>183</v>
       </c>
@@ -22983,10 +24115,13 @@
         <v>94</v>
       </c>
       <c r="W303" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="X303" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>186</v>
       </c>
@@ -23051,13 +24186,13 @@
         <v>77</v>
       </c>
       <c r="V304" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W304" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>189</v>
       </c>
@@ -23125,10 +24260,10 @@
         <v>47</v>
       </c>
       <c r="W305" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>192</v>
       </c>
@@ -23196,10 +24331,13 @@
         <v>222</v>
       </c>
       <c r="W306" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X306" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -23267,10 +24405,13 @@
         <v>72</v>
       </c>
       <c r="W307" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X307" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -23337,13 +24478,16 @@
       <c r="V308" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W308" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>57</v>
       </c>
       <c r="B309" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C309">
         <v>6</v>
@@ -23361,7 +24505,7 @@
         <v>121</v>
       </c>
       <c r="H309" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I309" t="s">
         <v>25</v>
@@ -23403,18 +24547,18 @@
         <v>88</v>
       </c>
       <c r="V309" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W309" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>42</v>
       </c>
       <c r="B310" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C310">
         <v>7</v>
@@ -23476,8 +24620,11 @@
       <c r="V310" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W310" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>183</v>
       </c>
@@ -23544,8 +24691,14 @@
       <c r="V311" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W311" t="s">
+        <v>431</v>
+      </c>
+      <c r="X311" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>186</v>
       </c>
@@ -23610,18 +24763,18 @@
         <v>78</v>
       </c>
       <c r="V312" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W312" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>189</v>
       </c>
       <c r="B313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C313">
         <v>8</v>
@@ -23683,13 +24836,16 @@
       <c r="V313" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W313" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>192</v>
       </c>
       <c r="B314" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C314">
         <v>6</v>
@@ -23751,8 +24907,14 @@
       <c r="V314" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W314" t="s">
+        <v>434</v>
+      </c>
+      <c r="X314" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -23820,10 +24982,13 @@
         <v>32</v>
       </c>
       <c r="W315" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X315" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -23888,10 +25053,13 @@
         <v>140</v>
       </c>
       <c r="V316" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="W316" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>57</v>
       </c>
@@ -23914,7 +25082,7 @@
         <v>121</v>
       </c>
       <c r="H317" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I317" t="s">
         <v>25</v>
@@ -23956,13 +25124,13 @@
         <v>82</v>
       </c>
       <c r="V317" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W317" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>42</v>
       </c>
@@ -24030,10 +25198,10 @@
         <v>172</v>
       </c>
       <c r="W318" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>22</v>
       </c>
@@ -24101,10 +25269,13 @@
         <v>82</v>
       </c>
       <c r="W319" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X319" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -24171,8 +25342,11 @@
       <c r="V320" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W320" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>57</v>
       </c>
@@ -24192,7 +25366,7 @@
         <v>15</v>
       </c>
       <c r="G321" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H321" t="s">
         <v>121</v>
@@ -24237,18 +25411,18 @@
         <v>100</v>
       </c>
       <c r="V321" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W321" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>42</v>
       </c>
       <c r="B322" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C322">
         <v>8</v>
@@ -24311,10 +25485,10 @@
         <v>90</v>
       </c>
       <c r="W322" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>183</v>
       </c>
@@ -24381,13 +25555,19 @@
       <c r="V323" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W323" t="s">
+        <v>430</v>
+      </c>
+      <c r="X323" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>186</v>
       </c>
       <c r="B324" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C324">
         <v>6</v>
@@ -24450,10 +25630,10 @@
         <v>47</v>
       </c>
       <c r="W324" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>189</v>
       </c>
@@ -24520,13 +25700,16 @@
       <c r="V325" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W325" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>192</v>
       </c>
       <c r="B326" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -24588,8 +25771,14 @@
       <c r="V326" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W326" t="s">
+        <v>434</v>
+      </c>
+      <c r="X326" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -24657,10 +25846,13 @@
         <v>72</v>
       </c>
       <c r="W327" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X327" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -24727,8 +25919,11 @@
       <c r="V328" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W328" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>57</v>
       </c>
@@ -24748,7 +25943,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H329" t="s">
         <v>121</v>
@@ -24793,10 +25988,13 @@
         <v>85</v>
       </c>
       <c r="V329" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="W329" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>42</v>
       </c>
@@ -24864,15 +26062,15 @@
         <v>172</v>
       </c>
       <c r="W330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>183</v>
       </c>
       <c r="B331" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -24932,15 +26130,21 @@
         <v>140</v>
       </c>
       <c r="V331" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W331" t="s">
+        <v>445</v>
+      </c>
+      <c r="X331" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>186</v>
       </c>
       <c r="B332" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C332">
         <v>5</v>
@@ -25000,18 +26204,18 @@
         <v>70</v>
       </c>
       <c r="V332" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W332" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>189</v>
       </c>
       <c r="B333" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C333">
         <v>7</v>
@@ -25073,13 +26277,16 @@
       <c r="V333" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W333" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>192</v>
       </c>
       <c r="B334" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C334">
         <v>5</v>
@@ -25142,10 +26349,13 @@
         <v>222</v>
       </c>
       <c r="W334" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="X334" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>22</v>
       </c>
@@ -25213,10 +26423,13 @@
         <v>32</v>
       </c>
       <c r="W335" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X335" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -25284,10 +26497,10 @@
         <v>79</v>
       </c>
       <c r="W336" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -25307,7 +26520,7 @@
         <v>15</v>
       </c>
       <c r="G337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H337" t="s">
         <v>121</v>
@@ -25352,10 +26565,13 @@
         <v>85</v>
       </c>
       <c r="V337" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="W337" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>42</v>
       </c>
@@ -25422,8 +26638,11 @@
       <c r="V338" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W338" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>183</v>
       </c>
@@ -25491,15 +26710,18 @@
         <v>217</v>
       </c>
       <c r="W339" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X339" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>186</v>
       </c>
       <c r="B340" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C340">
         <v>6</v>
@@ -25559,13 +26781,13 @@
         <v>80</v>
       </c>
       <c r="V340" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W340" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>189</v>
       </c>
@@ -25633,10 +26855,10 @@
         <v>47</v>
       </c>
       <c r="W341" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>192</v>
       </c>
@@ -25701,10 +26923,16 @@
         <v>85</v>
       </c>
       <c r="V342" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="W342" t="s">
+        <v>463</v>
+      </c>
+      <c r="X342" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -25772,10 +27000,13 @@
         <v>82</v>
       </c>
       <c r="W343" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="X343" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>57</v>
       </c>
@@ -25795,7 +27026,7 @@
         <v>15</v>
       </c>
       <c r="G344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H344" t="s">
         <v>121</v>
@@ -25842,8 +27073,11 @@
       <c r="V344" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W344" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -25911,10 +27145,10 @@
         <v>90</v>
       </c>
       <c r="W345" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>183</v>
       </c>
@@ -25981,8 +27215,14 @@
       <c r="V346" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W346" t="s">
+        <v>438</v>
+      </c>
+      <c r="X346" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>186</v>
       </c>
@@ -26047,18 +27287,18 @@
         <v>95</v>
       </c>
       <c r="V347" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W347" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>189</v>
       </c>
       <c r="B348" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -26120,13 +27360,16 @@
       <c r="V348" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W348" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>192</v>
       </c>
       <c r="B349" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C349">
         <v>3</v>
@@ -26186,13 +27429,16 @@
         <v>95</v>
       </c>
       <c r="V349" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W349" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="X349" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -26260,10 +27506,13 @@
         <v>32</v>
       </c>
       <c r="W350" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X350" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -26330,8 +27579,11 @@
       <c r="V351" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W351" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>57</v>
       </c>
@@ -26351,7 +27603,7 @@
         <v>15</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H352" t="s">
         <v>121</v>
@@ -26396,13 +27648,13 @@
         <v>80</v>
       </c>
       <c r="V352" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W352" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>42</v>
       </c>
@@ -26470,10 +27722,10 @@
         <v>172</v>
       </c>
       <c r="W353" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -26538,10 +27790,16 @@
         <v>130</v>
       </c>
       <c r="V354" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="W354" t="s">
+        <v>467</v>
+      </c>
+      <c r="X354" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>186</v>
       </c>
@@ -26606,13 +27864,13 @@
         <v>80</v>
       </c>
       <c r="V355" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W355" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>189</v>
       </c>
@@ -26679,13 +27937,16 @@
       <c r="V356" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W356" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>192</v>
       </c>
       <c r="B357" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C357">
         <v>6</v>
@@ -26747,13 +28008,19 @@
       <c r="V357" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W357" t="s">
+        <v>434</v>
+      </c>
+      <c r="X357" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>22</v>
       </c>
       <c r="B358" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -26816,10 +28083,13 @@
         <v>72</v>
       </c>
       <c r="W358" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X358" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>33</v>
       </c>
@@ -26886,8 +28156,11 @@
       <c r="V359" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W359" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>57</v>
       </c>
@@ -26907,7 +28180,7 @@
         <v>15</v>
       </c>
       <c r="G360" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H360" t="s">
         <v>121</v>
@@ -26954,8 +28227,11 @@
       <c r="V360" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W360" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>42</v>
       </c>
@@ -27023,10 +28299,10 @@
         <v>90</v>
       </c>
       <c r="W361" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>183</v>
       </c>
@@ -27094,10 +28370,13 @@
         <v>217</v>
       </c>
       <c r="W362" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X362" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>186</v>
       </c>
@@ -27162,13 +28441,13 @@
         <v>90</v>
       </c>
       <c r="V363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W363" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>189</v>
       </c>
@@ -27235,8 +28514,11 @@
       <c r="V364" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W364" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>192</v>
       </c>
@@ -27301,10 +28583,16 @@
         <v>85</v>
       </c>
       <c r="V365" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="W365" t="s">
+        <v>463</v>
+      </c>
+      <c r="X365" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>22</v>
       </c>
@@ -27369,10 +28657,16 @@
         <v>120</v>
       </c>
       <c r="V366" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W366" t="s">
+        <v>448</v>
+      </c>
+      <c r="X366" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>33</v>
       </c>
@@ -27437,13 +28731,13 @@
         <v>135</v>
       </c>
       <c r="V367" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W367" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>57</v>
       </c>
@@ -27463,7 +28757,7 @@
         <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H368" t="s">
         <v>121</v>
@@ -27510,8 +28804,11 @@
       <c r="V368" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W368" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>42</v>
       </c>
@@ -27579,15 +28876,15 @@
         <v>90</v>
       </c>
       <c r="W369" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>186</v>
       </c>
       <c r="B370" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C370">
         <v>6</v>
@@ -27647,13 +28944,13 @@
         <v>85</v>
       </c>
       <c r="V370" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W370" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>189</v>
       </c>
@@ -27720,8 +29017,11 @@
       <c r="V371" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W371" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>192</v>
       </c>
@@ -27788,8 +29088,14 @@
       <c r="V372" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W372" t="s">
+        <v>434</v>
+      </c>
+      <c r="X372" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -27809,7 +29115,7 @@
         <v>15</v>
       </c>
       <c r="G373" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H373" t="s">
         <v>121</v>
@@ -27854,10 +29160,13 @@
         <v>115</v>
       </c>
       <c r="V373" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W373" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -27925,10 +29234,10 @@
         <v>172</v>
       </c>
       <c r="W374" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>183</v>
       </c>
@@ -27996,10 +29305,13 @@
         <v>217</v>
       </c>
       <c r="W375" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X375" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>186</v>
       </c>
@@ -28064,13 +29376,13 @@
         <v>85</v>
       </c>
       <c r="V376" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W376" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>189</v>
       </c>
@@ -28137,8 +29449,11 @@
       <c r="V377" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W377" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>192</v>
       </c>
@@ -28203,13 +29518,16 @@
         <v>100</v>
       </c>
       <c r="V378" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W378" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="X378" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -28277,10 +29595,13 @@
         <v>72</v>
       </c>
       <c r="W379" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X379" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -28347,8 +29668,11 @@
       <c r="V380" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W380" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -28368,7 +29692,7 @@
         <v>15</v>
       </c>
       <c r="G381" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H381" t="s">
         <v>121</v>
@@ -28415,13 +29739,16 @@
       <c r="V381" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W381" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>42</v>
       </c>
       <c r="B382" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C382">
         <v>8</v>
@@ -28484,10 +29811,10 @@
         <v>90</v>
       </c>
       <c r="W382" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>183</v>
       </c>
@@ -28555,15 +29882,18 @@
         <v>217</v>
       </c>
       <c r="W383" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="X383" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>186</v>
       </c>
       <c r="B384" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C384">
         <v>6</v>
@@ -28623,13 +29953,13 @@
         <v>85</v>
       </c>
       <c r="V384" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W384" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -28696,13 +30026,16 @@
       <c r="V385" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W385" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>192</v>
       </c>
       <c r="B386" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C386">
         <v>6</v>
@@ -28762,10 +30095,16 @@
         <v>95</v>
       </c>
       <c r="V386" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="W386" t="s">
+        <v>466</v>
+      </c>
+      <c r="X386" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -28830,10 +30169,16 @@
         <v>120</v>
       </c>
       <c r="V387" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W387" t="s">
+        <v>448</v>
+      </c>
+      <c r="X387" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -28898,10 +30243,13 @@
         <v>130</v>
       </c>
       <c r="V388" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="W388" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -28921,7 +30269,7 @@
         <v>15</v>
       </c>
       <c r="G389" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H389" t="s">
         <v>121</v>
@@ -28969,10 +30317,10 @@
         <v>156</v>
       </c>
       <c r="W389" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -29040,10 +30388,10 @@
         <v>77</v>
       </c>
       <c r="W390" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -29111,15 +30459,15 @@
         <v>90</v>
       </c>
       <c r="W391" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>186</v>
       </c>
       <c r="B392" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C392">
         <v>4</v>
@@ -29179,18 +30527,18 @@
         <v>80</v>
       </c>
       <c r="V392" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W392" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>189</v>
       </c>
       <c r="B393" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -29252,13 +30600,16 @@
       <c r="V393" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W393" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>192</v>
       </c>
       <c r="B394" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C394">
         <v>4</v>
@@ -29318,10 +30669,16 @@
         <v>100</v>
       </c>
       <c r="V394" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="W394" t="s">
+        <v>465</v>
+      </c>
+      <c r="X394" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>186</v>
       </c>
@@ -29386,13 +30743,13 @@
         <v>80</v>
       </c>
       <c r="V395" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W395" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>189</v>
       </c>
@@ -29457,10 +30814,13 @@
         <v>95</v>
       </c>
       <c r="V396" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="W396" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>192</v>
       </c>
@@ -29528,10 +30888,13 @@
         <v>194</v>
       </c>
       <c r="W397" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="X397" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>57</v>
       </c>
@@ -29551,7 +30914,7 @@
         <v>15</v>
       </c>
       <c r="G398" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H398" t="s">
         <v>121</v>
@@ -29596,15 +30959,18 @@
         <v>120</v>
       </c>
       <c r="V398" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W398" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
       <c r="B399" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C399">
         <v>3</v>
@@ -29667,10 +31033,10 @@
         <v>90</v>
       </c>
       <c r="W399" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>189</v>
       </c>
@@ -29737,13 +31103,16 @@
       <c r="V400" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W400" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>192</v>
       </c>
       <c r="B401" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -29805,8 +31174,14 @@
       <c r="V401" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W401" t="s">
+        <v>434</v>
+      </c>
+      <c r="X401" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>22</v>
       </c>
@@ -29871,10 +31246,16 @@
         <v>120</v>
       </c>
       <c r="V402" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="W402" t="s">
+        <v>469</v>
+      </c>
+      <c r="X402" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>33</v>
       </c>
@@ -29942,10 +31323,10 @@
         <v>79</v>
       </c>
       <c r="W403" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>57</v>
       </c>
@@ -29965,7 +31346,7 @@
         <v>15</v>
       </c>
       <c r="G404" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H404" t="s">
         <v>121</v>
@@ -30010,10 +31391,13 @@
         <v>110</v>
       </c>
       <c r="V404" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="W404" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>42</v>
       </c>
@@ -30081,10 +31465,10 @@
         <v>77</v>
       </c>
       <c r="W405" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>42</v>
       </c>
@@ -30152,10 +31536,10 @@
         <v>90</v>
       </c>
       <c r="W406" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>186</v>
       </c>
@@ -30220,13 +31604,13 @@
         <v>80</v>
       </c>
       <c r="V407" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W407" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>189</v>
       </c>
@@ -30293,8 +31677,11 @@
       <c r="V408" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W408" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>192</v>
       </c>
@@ -30361,13 +31748,19 @@
       <c r="V409" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W409" t="s">
+        <v>434</v>
+      </c>
+      <c r="X409" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>42</v>
       </c>
       <c r="B410" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -30430,10 +31823,10 @@
         <v>172</v>
       </c>
       <c r="W410" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>186</v>
       </c>
@@ -30498,13 +31891,13 @@
         <v>85</v>
       </c>
       <c r="V411" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W411" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -30569,15 +31962,18 @@
         <v>100</v>
       </c>
       <c r="V412" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="W412" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>192</v>
       </c>
       <c r="B413" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C413">
         <v>2</v>
@@ -30637,10 +32033,16 @@
         <v>110</v>
       </c>
       <c r="V413" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="W413" t="s">
+        <v>470</v>
+      </c>
+      <c r="X413" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>189</v>
       </c>
@@ -30707,8 +32109,11 @@
       <c r="V414" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W414" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>192</v>
       </c>
@@ -30773,15 +32178,21 @@
         <v>110</v>
       </c>
       <c r="V415" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="W415" t="s">
+        <v>466</v>
+      </c>
+      <c r="X415" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>186</v>
       </c>
       <c r="B416" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C416">
         <v>5</v>
@@ -30841,18 +32252,18 @@
         <v>90</v>
       </c>
       <c r="V416" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W416" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>186</v>
       </c>
       <c r="B417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C417">
         <v>6</v>
@@ -30915,10 +32326,10 @@
         <v>47</v>
       </c>
       <c r="W417" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>22</v>
       </c>
@@ -30986,10 +32397,13 @@
         <v>32</v>
       </c>
       <c r="W418" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X418" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>22</v>
       </c>
@@ -31057,10 +32471,13 @@
         <v>32</v>
       </c>
       <c r="W419" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X419" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>33</v>
       </c>
@@ -31127,8 +32544,11 @@
       <c r="V420" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W420" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>57</v>
       </c>
@@ -31151,7 +32571,7 @@
         <v>121</v>
       </c>
       <c r="H421" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I421" t="s">
         <v>25</v>
@@ -31195,8 +32615,11 @@
       <c r="V421" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W421" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>57</v>
       </c>
@@ -31216,7 +32639,7 @@
         <v>15</v>
       </c>
       <c r="G422" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H422" t="s">
         <v>121</v>
@@ -31261,10 +32684,13 @@
         <v>125</v>
       </c>
       <c r="V422" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="W422" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>22</v>
       </c>
@@ -31332,10 +32758,13 @@
         <v>32</v>
       </c>
       <c r="W423" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="X423" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -31403,10 +32832,10 @@
         <v>41</v>
       </c>
       <c r="W424" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>42</v>
       </c>
@@ -31474,10 +32903,10 @@
         <v>47</v>
       </c>
       <c r="W425" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>22</v>
       </c>
@@ -31545,10 +32974,13 @@
         <v>51</v>
       </c>
       <c r="W426" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="X426" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>33</v>
       </c>
@@ -31616,10 +33048,10 @@
         <v>56</v>
       </c>
       <c r="W427" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>57</v>
       </c>
@@ -31684,13 +33116,13 @@
         <v>85</v>
       </c>
       <c r="V428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W428" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -31758,10 +33190,13 @@
         <v>64</v>
       </c>
       <c r="W429" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="X429" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -31828,8 +33263,11 @@
       <c r="V430" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W430" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>22</v>
       </c>
@@ -31897,10 +33335,13 @@
         <v>72</v>
       </c>
       <c r="W431" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="X431" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>42</v>
       </c>
@@ -31968,15 +33409,85 @@
         <v>77</v>
       </c>
       <c r="W432" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>183</v>
+      </c>
+      <c r="B433" t="s">
+        <v>216</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>24</v>
+      </c>
+      <c r="E433">
+        <v>1.8</v>
+      </c>
+      <c r="F433" t="s">
+        <v>370</v>
+      </c>
+      <c r="G433" t="s">
+        <v>371</v>
+      </c>
+      <c r="H433" t="s">
+        <v>53</v>
+      </c>
+      <c r="I433" t="s">
+        <v>372</v>
+      </c>
+      <c r="J433" t="s">
+        <v>66</v>
+      </c>
+      <c r="K433" t="s">
+        <v>29</v>
+      </c>
+      <c r="L433" t="s">
+        <v>30</v>
+      </c>
+      <c r="M433" t="s">
+        <v>30</v>
+      </c>
+      <c r="N433" t="s">
+        <v>30</v>
+      </c>
+      <c r="O433" t="s">
+        <v>30</v>
+      </c>
+      <c r="P433" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>29</v>
+      </c>
+      <c r="R433" t="s">
+        <v>30</v>
+      </c>
+      <c r="S433" t="s">
+        <v>30</v>
+      </c>
+      <c r="T433" t="s">
+        <v>78</v>
+      </c>
+      <c r="U433">
+        <v>155</v>
+      </c>
+      <c r="V433" t="s">
+        <v>373</v>
+      </c>
+      <c r="W433" t="s">
+        <v>374</v>
+      </c>
+      <c r="X433" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W432" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="22">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
